--- a/general/P02C.xlsx
+++ b/general/P02C.xlsx
@@ -7,7 +7,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Реле 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Дискретные входы" sheetId="1" r:id="rId1"/>
+    <sheet name="Реле" sheetId="8" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,82 +20,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Описание</t>
+    <t>Тип дискретного входа</t>
   </si>
   <si>
-    <t>Наименование ПО</t>
+    <t>Тип реле</t>
   </si>
   <si>
-    <t>Наименование ФСУ</t>
-  </si>
-  <si>
-    <t>Значение / Диапазон</t>
-  </si>
-  <si>
-    <t>Ед. изм.</t>
-  </si>
-  <si>
-    <t>Шаг</t>
-  </si>
-  <si>
-    <t>Значение по умолчанию</t>
-  </si>
-  <si>
-    <t>Уставка</t>
-  </si>
-  <si>
-    <t>Последняя поданная команда</t>
-  </si>
-  <si>
-    <t>Статус</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>Режим работы реле</t>
-  </si>
-  <si>
-    <t>Режим</t>
-  </si>
-  <si>
-    <t>Длительность импульса</t>
-  </si>
-  <si>
-    <t>Дл. имп.</t>
-  </si>
-  <si>
-    <t>Т1</t>
-  </si>
-  <si>
-    <t>0,10…10,00</t>
-  </si>
-  <si>
-    <t>с</t>
-  </si>
-  <si>
-    <t>Назначение реле</t>
-  </si>
-  <si>
-    <t>0...31</t>
-  </si>
-  <si>
-    <t>Символ</t>
-  </si>
-  <si>
-    <t>0 - Выведено, 1 - Без фиксации, 2 - С фиксацией, 3 -Импульсный</t>
-  </si>
-  <si>
-    <t>0 - Включено, 1 - Отключено</t>
+    <t>bin_output</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,13 +51,6 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -139,13 +73,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -426,138 +356,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="27.42578125" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>